--- a/data/trans_camb/P22_R3-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P22_R3-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.191808616634483</v>
+        <v>-1.91953286455982</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.578980510529038</v>
+        <v>-2.567259603930598</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.316486456023224</v>
+        <v>-2.9593487622293</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.376479633529028</v>
+        <v>-5.28313915237698</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.27190287629242</v>
+        <v>-5.079935678492918</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.108081441287593</v>
+        <v>-5.334204508549042</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.190067061650555</v>
+        <v>-3.106328930680192</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.200152940073381</v>
+        <v>-3.251893483314576</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.516560090451498</v>
+        <v>-3.620586370092228</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.212338725350834</v>
+        <v>2.227963397406533</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.491985654823982</v>
+        <v>1.485489129072344</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4452024952171319</v>
+        <v>0.705389558694492</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.757096736805043</v>
+        <v>-1.916305314063353</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.520095489512042</v>
+        <v>-1.300494999914167</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.753726002492987</v>
+        <v>-1.830433669973941</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.3449176050398723</v>
+        <v>-0.2429473985647623</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.6083488627014726</v>
+        <v>-0.6536712998281321</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.001499573421187</v>
+        <v>-1.121377381862898</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.153662110644946</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.3049645641671178</v>
+        <v>-0.3049645641671177</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.7564043301337251</v>
@@ -769,7 +769,7 @@
         <v>-0.4714356127454816</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.5533914056801428</v>
+        <v>-0.5533914056801429</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4832962891213993</v>
+        <v>-0.4332447873522567</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5430970295015807</v>
+        <v>-0.5541098985553454</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6630911124190675</v>
+        <v>-0.6460096963138352</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.9093655010916001</v>
+        <v>-0.9083427642349636</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8887172747429516</v>
+        <v>-0.8801680672399718</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8540359289746532</v>
+        <v>-0.8618204518574863</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6389719538290377</v>
+        <v>-0.6421821392585122</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6758766383720684</v>
+        <v>-0.6726275975652201</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.706102911570999</v>
+        <v>-0.7156699952576264</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8353983680906593</v>
+        <v>0.8628137915052425</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6559806191441706</v>
+        <v>0.5854360873730957</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2541709915840312</v>
+        <v>0.2892772200407252</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.4334518976758562</v>
+        <v>-0.4927171325813437</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.3766027986378808</v>
+        <v>-0.3115079862886591</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4973694880440683</v>
+        <v>-0.4927696298327714</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.07660314691682867</v>
+        <v>-0.04440803785569534</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1772803329797066</v>
+        <v>-0.1809432642183347</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.2999642489471965</v>
+        <v>-0.3271572558383197</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>0.3153034723313942</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.4488353037175891</v>
+        <v>-0.4488353037175888</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3133347496640485</v>
+        <v>-0.3324065420885006</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4497847858858263</v>
+        <v>0.5253960813080766</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.428399580520006</v>
+        <v>-1.424035941314355</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.377347907653081</v>
+        <v>-3.41496699946557</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.23618650115841</v>
+        <v>-3.344486111568433</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.96325282959126</v>
+        <v>-2.875913666855485</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.209433572162881</v>
+        <v>-1.307868637282521</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.9766431490752304</v>
+        <v>-1.020905111640054</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.561135440973813</v>
+        <v>-1.542719585082882</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.487089636726309</v>
+        <v>3.48277970280816</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.291037906241408</v>
+        <v>4.101265328068823</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.985917963808981</v>
+        <v>2.240496831824383</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.05405960131596831</v>
+        <v>-0.2648320218068029</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.08702142498580763</v>
+        <v>-0.163706227003544</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2580329902340101</v>
+        <v>0.2140474285297895</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.259540631473596</v>
+        <v>1.167982066417296</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.54065124133968</v>
+        <v>1.58317325468768</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6323780611110754</v>
+        <v>0.8801192838901757</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.08945737558109434</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1273428041937903</v>
+        <v>-0.1273428041937902</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1070086964797814</v>
+        <v>-0.08694456880434176</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.08925039142898818</v>
+        <v>0.09496644205300389</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3763770665312492</v>
+        <v>-0.3795108396108866</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6767505696873306</v>
+        <v>-0.6808037291223411</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6504047905132261</v>
+        <v>-0.6473495130596145</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5616080452502519</v>
+        <v>-0.5612926818863506</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2965800500237451</v>
+        <v>-0.3159733649564076</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2384847725913462</v>
+        <v>-0.2377681877066843</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3803179418874771</v>
+        <v>-0.3801613343377644</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.44109355792242</v>
+        <v>1.545908992482052</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.912922318797676</v>
+        <v>1.866472507984004</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8862822826447833</v>
+        <v>1.030945975766906</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.01175599466157671</v>
+        <v>-0.06336671602869931</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.01028351676943801</v>
+        <v>-0.01324840962195545</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09983052925934705</v>
+        <v>0.0774591712463896</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4481723636589514</v>
+        <v>0.3786788148459503</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5428027791878725</v>
+        <v>0.5345995551006475</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2199427556831713</v>
+        <v>0.319051917727183</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.803367139112745</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.1607385143897765</v>
+        <v>-0.1607385143897772</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.9773387018025437</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.404012219938462</v>
+        <v>-1.091548565471752</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.901693503241739</v>
+        <v>-3.875585101753115</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.534418983442342</v>
+        <v>-2.28263145752425</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.456409571183337</v>
+        <v>-1.772135031917467</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.051852020758687</v>
+        <v>-3.13162393743482</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.084842073531995</v>
+        <v>-4.063977323454511</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.5653589178615417</v>
+        <v>-0.7421437008056914</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.699161219319162</v>
+        <v>-2.791390920358849</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.633781242996789</v>
+        <v>-2.671703861625535</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.697535930370403</v>
+        <v>3.814411874606217</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.01025498922652158</v>
+        <v>-0.03117230870015688</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.298848961309512</v>
+        <v>2.251186438783932</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.637808973227058</v>
+        <v>3.358344868185739</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.324555526661409</v>
+        <v>1.218484163638769</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.1442119052516392</v>
+        <v>-0.2634726554302244</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.728546384500557</v>
+        <v>2.711713433414938</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1080310499252526</v>
+        <v>0.1553209967709922</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3185678831751146</v>
+        <v>0.2633894137254483</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.4471062305425299</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.03985166953146199</v>
+        <v>-0.03985166953146216</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2058195777094275</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2717954865371319</v>
+        <v>-0.2325459680776125</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7259271947553685</v>
+        <v>-0.7176395554216366</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4895878336278486</v>
+        <v>-0.4797548033883882</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.260184688377147</v>
+        <v>-0.2784468630987359</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4991410414677865</v>
+        <v>-0.5173218026635061</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6685599891214922</v>
+        <v>-0.6657717422620035</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.110413314141728</v>
+        <v>-0.1364260468858171</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5233623930168454</v>
+        <v>-0.526843364805171</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5159290773584025</v>
+        <v>-0.5018526896334933</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.228247250783254</v>
+        <v>1.233519681157542</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.02273658247389804</v>
+        <v>0.002289854715916981</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8103208402536713</v>
+        <v>0.7557569523551207</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.015422130734654</v>
+        <v>0.907969571252792</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4001120070921427</v>
+        <v>0.3654708381599812</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.02476624855422306</v>
+        <v>-0.02889546263651676</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.754525838346906</v>
+        <v>0.7370618193403317</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.03875548101504911</v>
+        <v>0.04369014883313548</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.09339801266330346</v>
+        <v>0.09446520745155855</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.571457481901505</v>
+        <v>-2.318334463492012</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.3778609252581438</v>
+        <v>-0.4682311352052078</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.659810100284228</v>
+        <v>-2.421229880578692</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.528978127732681</v>
+        <v>-1.708549233409376</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.559981707073132</v>
+        <v>-0.7467709763995555</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.89677802492518</v>
+        <v>-1.893607058470808</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.47981568118709</v>
+        <v>-1.436137673026604</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.08517354753773534</v>
+        <v>0.04911659208006285</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.73538752934362</v>
+        <v>-1.719784985310124</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.468818611211258</v>
+        <v>1.662142155614176</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.108024172830624</v>
+        <v>3.797923363696786</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.11402015919084</v>
+        <v>1.333696991360398</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.00466630002896</v>
+        <v>2.154715522674222</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.13238585543</v>
+        <v>3.354576748945104</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.364905763721143</v>
+        <v>1.321358191620907</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.410067515876944</v>
+        <v>1.316872932183794</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.9875256116252</v>
+        <v>2.837922183465375</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8186761931902407</v>
+        <v>0.7655878349183457</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4140820157086733</v>
+        <v>-0.3854448596184812</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.07867368571823058</v>
+        <v>-0.08899168645516904</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4197307558718367</v>
+        <v>-0.3965929073799797</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3038537110436152</v>
+        <v>-0.3186172957914798</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1211096339625911</v>
+        <v>-0.1511284202040372</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3727837126225905</v>
+        <v>-0.3588360261615312</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2809364972894678</v>
+        <v>-0.2743117297904624</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.003218769506301199</v>
+        <v>0.01382478205237178</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3194327881347841</v>
+        <v>-0.3145193172531763</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3364614684737586</v>
+        <v>0.4085153814243094</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9472152330230204</v>
+        <v>0.8558233291343321</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.28006119880981</v>
+        <v>0.3190025283943032</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5986067279351051</v>
+        <v>0.7191508345478752</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9744002244444092</v>
+        <v>1.086911582369387</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4369149208143535</v>
+        <v>0.4384690289719167</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3514649610464406</v>
+        <v>0.3232434020062303</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7276451006193523</v>
+        <v>0.7345865797471707</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2039680518313761</v>
+        <v>0.1970186635886801</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.6138772492553318</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.3288751037306754</v>
+        <v>-0.3288751037306747</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.8838016700693729</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4134173405686532</v>
+        <v>-0.3856039969206071</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.5186729603706699</v>
+        <v>-0.4658612582395101</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.327139226209879</v>
+        <v>-1.278543784639226</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.791061033699133</v>
+        <v>-1.922125368545929</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.816635002899957</v>
+        <v>-1.862382141116954</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.371864132110812</v>
+        <v>-2.463669773140666</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.8141728720375194</v>
+        <v>-0.8228506016609732</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.8097789683355786</v>
+        <v>-0.8657304232315094</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.610838964014655</v>
+        <v>-1.599364937019031</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.847425528062778</v>
+        <v>1.72871584315471</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.652728344677416</v>
+        <v>1.63254733071414</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5999260966412552</v>
+        <v>0.7230756281506626</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1046077694221881</v>
+        <v>0.1125649085406606</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.0172860051284443</v>
+        <v>0.07021086518691595</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.7772687805106715</v>
+        <v>-0.76983941330634</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.557557879535213</v>
+        <v>0.5674787621967203</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.5445784687526952</v>
+        <v>0.5389732046468368</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.2884618323236593</v>
+        <v>-0.343579818856088</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1535136313363598</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.08224251915356266</v>
+        <v>-0.08224251915356248</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.2042807411978372</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.0906496597621952</v>
+        <v>-0.08857349001375356</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1119692744646573</v>
+        <v>-0.1004234903847158</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.293972315901632</v>
+        <v>-0.2829779418384066</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3720454984471434</v>
+        <v>-0.3992866085629174</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3879900892111289</v>
+        <v>-0.3788869995705454</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4832731651902826</v>
+        <v>-0.4985126819489309</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1836467293257925</v>
+        <v>-0.185390359741546</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1858825006216793</v>
+        <v>-0.1958678370243921</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3547931052734848</v>
+        <v>-0.3532123031174162</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5230184025914967</v>
+        <v>0.4973084038619102</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4808647695726156</v>
+        <v>0.4773964138417788</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1746615683702405</v>
+        <v>0.2169371702629187</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.029766217841596</v>
+        <v>0.0277474065226609</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.005447507127415774</v>
+        <v>0.02229863023763671</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.2013133956594963</v>
+        <v>-0.195675084960758</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.145753346076748</v>
+        <v>0.1515995440936997</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.138279078473117</v>
+        <v>0.1386981511345478</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.07164577349277754</v>
+        <v>-0.0881009845347471</v>
       </c>
     </row>
     <row r="34">
